--- a/Breathing/Will Dennis.xlsx
+++ b/Breathing/Will Dennis.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDFCD48-0FD4-41AA-9924-D80E87CE427F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1395D0-621D-4FB9-B787-D73FF6D2675A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>Date</t>
   </si>
@@ -354,13 +354,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:D4"/>
+  <dimension ref="B2:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
@@ -392,6 +395,17 @@
         <v>9.375E-2</v>
       </c>
       <c r="D4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
+        <v>43741</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.10069444444444443</v>
+      </c>
+      <c r="D5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Breathing/Will Dennis.xlsx
+++ b/Breathing/Will Dennis.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1395D0-621D-4FB9-B787-D73FF6D2675A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA90904C-D323-4718-AFA0-35EEC914B3B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -35,6 +35,24 @@
   </si>
   <si>
     <t>30 reps Wim Hof Lying Down</t>
+  </si>
+  <si>
+    <t>Started using trainer</t>
+  </si>
+  <si>
+    <t>In School</t>
+  </si>
+  <si>
+    <t>Heartrate</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Rough Avg</t>
   </si>
 </sst>
 </file>
@@ -70,10 +88,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -354,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:D5"/>
+  <dimension ref="B1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -365,7 +386,14 @@
     <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -373,43 +401,122 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="1">
         <v>43711</v>
       </c>
       <c r="C3" s="2">
         <v>5.2083333333333336E-2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3">
+        <v>60</v>
+      </c>
+      <c r="E3">
+        <v>75</v>
+      </c>
+      <c r="F3">
+        <v>67.5</v>
+      </c>
+      <c r="H3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>43711</v>
       </c>
       <c r="C4" s="2">
         <v>9.375E-2</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4">
+        <v>62.5</v>
+      </c>
+      <c r="E4">
+        <v>77.5</v>
+      </c>
+      <c r="F4">
+        <v>67.5</v>
+      </c>
+      <c r="H4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>43741</v>
       </c>
       <c r="C5" s="2">
         <v>0.10069444444444443</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5">
+        <v>75</v>
+      </c>
+      <c r="E5">
+        <v>105</v>
+      </c>
+      <c r="F5">
+        <v>92.5</v>
+      </c>
+      <c r="H5" t="s">
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <v>43771</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="D6">
+        <v>102.5</v>
+      </c>
+      <c r="E6">
+        <v>137.5</v>
+      </c>
+      <c r="F6">
+        <v>125</v>
+      </c>
+      <c r="H6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
+        <v>43771</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.1076388888888889</v>
+      </c>
+      <c r="D7">
+        <v>72.5</v>
+      </c>
+      <c r="E7">
+        <v>82.5</v>
+      </c>
+      <c r="F7">
+        <v>77.5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Breathing/Will Dennis.xlsx
+++ b/Breathing/Will Dennis.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA90904C-D323-4718-AFA0-35EEC914B3B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901A18CB-1F24-4D98-B008-904A1BA3E757}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -53,6 +53,12 @@
   </si>
   <si>
     <t>Rough Avg</t>
+  </si>
+  <si>
+    <t>18/3/2019</t>
+  </si>
+  <si>
+    <t>Lyring Down Before Bed</t>
   </si>
 </sst>
 </file>
@@ -375,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H7"/>
+  <dimension ref="B1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -513,6 +519,26 @@
         <v>5</v>
       </c>
     </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.12361111111111112</v>
+      </c>
+      <c r="D8">
+        <v>70</v>
+      </c>
+      <c r="E8">
+        <v>95</v>
+      </c>
+      <c r="F8">
+        <v>87.5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D1:F1"/>
